--- a/file/CONNECTOR_팀원별 기능 분담.xlsx
+++ b/file/CONNECTOR_팀원별 기능 분담.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\omg_programming\git_test\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673EEC3D-54E8-4FA5-A6AD-B2C3097EDCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489A54D-FE16-413F-AF90-ED3632BE3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{9767BB1D-D36B-4BEB-8577-BB8EE407C72D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9767BB1D-D36B-4BEB-8577-BB8EE407C72D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입</t>
+    <t>회원가입, 관리자페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -326,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -366,7 +366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -472,7 +472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -614,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,18 +624,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4427F21-6D83-4CFE-A7B2-13C1B53C4974}">
   <dimension ref="C4:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
@@ -659,43 +659,43 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C6" s="7"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C7" s="7"/>
       <c r="D7" s="10"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C8" s="7"/>
       <c r="D8" s="10"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C10" s="7"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C11" s="8"/>
       <c r="D11" s="11"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C12" s="13" t="s">
         <v>4</v>
       </c>
@@ -705,37 +705,37 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C13" s="14"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C14" s="14"/>
       <c r="D14" s="10"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C15" s="14"/>
       <c r="D15" s="10"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C16" s="14"/>
       <c r="D16" s="10"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C17" s="15"/>
       <c r="D17" s="11"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
@@ -745,37 +745,37 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C19" s="7"/>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C20" s="7"/>
       <c r="D20" s="10"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C21" s="7"/>
       <c r="D21" s="10"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C22" s="7"/>
       <c r="D22" s="10"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
@@ -785,37 +785,37 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C25" s="7"/>
       <c r="D25" s="10"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C26" s="7"/>
       <c r="D26" s="10"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C27" s="7"/>
       <c r="D27" s="10"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C28" s="7"/>
       <c r="D28" s="10"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
@@ -825,31 +825,31 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C31" s="7"/>
       <c r="D31" s="10"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C32" s="7"/>
       <c r="D32" s="10"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C33" s="7"/>
       <c r="D33" s="10"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C34" s="7"/>
       <c r="D34" s="10"/>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C35" s="8"/>
       <c r="D35" s="11"/>
       <c r="E35" s="3"/>
@@ -869,13 +869,13 @@
     <mergeCell ref="D18:D23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C18:D18 F18 E18:E21 F5:F10">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="C30:E34">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:E34">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="C12:F16">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -884,8 +884,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F16">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="F5:F10 C18:D18 F18 E18:E21">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
